--- a/QMS_Customer_Data_Sheet.xlsx
+++ b/QMS_Customer_Data_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/navneeth/Desktop/WEB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D3D6AD-FA12-E540-A9D1-4487DF5092C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D05C81-5383-2446-A5C3-6442FBCD0F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2689,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(B6, 1) &amp; RIGHT(B6, 4)</f>
         <v>N0572</v>
       </c>
       <c r="B6" s="1" t="s">
